--- a/server/templates/excel/Tracker.xlsx
+++ b/server/templates/excel/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F0D2FD-434F-4E58-BBCB-8D71B5C09B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C070A49-1AD8-4E7C-BFDB-4C88CD6483E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{57215FF3-25DA-4594-B7F9-BB78C938BDFD}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{57215FF3-25DA-4594-B7F9-BB78C938BDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Preventive Maintenance Check List</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>PM-005</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>{final_observations}</t>
   </si>
 </sst>
 </file>
@@ -924,6 +933,81 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,81 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1411,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E928AB45-5F2F-49C6-A694-55B6ED42CE8E}">
   <dimension ref="A1:Y286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -1437,15 +1446,15 @@
       <c r="C1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:14" ht="14.1" customHeight="1" thickTop="1">
       <c r="A2" s="5" t="s">
@@ -1468,22 +1477,22 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="116"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" thickTop="1">
       <c r="A4" s="16"/>
@@ -1506,24 +1515,24 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A5" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120" t="s">
+      <c r="A5" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:14" ht="40.15" customHeight="1" thickTop="1">
       <c r="A6" s="21"/>
@@ -1567,11 +1576,11 @@
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1">
       <c r="A8" s="37"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="34"/>
@@ -1616,15 +1625,15 @@
       <c r="B11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="58" t="s">
         <v>14</v>
       </c>
@@ -1636,15 +1645,15 @@
     <row r="12" spans="1:14" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="56"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="61"/>
       <c r="K12" s="62"/>
       <c r="L12" s="59"/>
@@ -1654,15 +1663,15 @@
       <c r="B13" s="63">
         <v>1</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="64"/>
       <c r="K13" s="64" t="s">
         <v>32</v>
@@ -1674,15 +1683,15 @@
       <c r="B14" s="63">
         <v>2</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="64"/>
       <c r="K14" s="64" t="s">
         <v>32</v>
@@ -1695,15 +1704,15 @@
       <c r="B15" s="63">
         <v>3</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="96"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="64"/>
       <c r="K15" s="64" t="s">
         <v>32</v>
@@ -1715,15 +1724,15 @@
       <c r="B16" s="63">
         <v>4</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="64"/>
       <c r="K16" s="64" t="s">
         <v>32</v>
@@ -1736,15 +1745,15 @@
       <c r="B17" s="63">
         <v>5</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="64"/>
       <c r="K17" s="64" t="s">
         <v>32</v>
@@ -1757,15 +1766,15 @@
       <c r="B18" s="63">
         <v>6</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="64"/>
       <c r="K18" s="64" t="s">
         <v>32</v>
@@ -1778,15 +1787,15 @@
       <c r="B19" s="63">
         <v>7</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="64"/>
       <c r="K19" s="64" t="s">
         <v>32</v>
@@ -1798,15 +1807,15 @@
       <c r="B20" s="63">
         <v>8</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="96"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="64"/>
       <c r="K20" s="64" t="s">
         <v>32</v>
@@ -1857,7 +1866,9 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="72"/>
+      <c r="B25" s="72" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="72"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
@@ -1931,13 +1942,13 @@
     </row>
     <row r="30" spans="1:14" ht="21.75" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
       <c r="G30" s="76"/>
       <c r="H30" s="35"/>
       <c r="I30" s="15" t="s">
@@ -2585,12 +2596,6 @@
     <row r="286" ht="14.65" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="C11:I11"/>
@@ -2603,6 +2608,12 @@
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C20:I20"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nombre del Representante Legal de la Interventoría o Director de Proyecto." sqref="L114:L115 B30 H30 J30" xr:uid="{C5C950C0-7248-45BB-B9D0-2E7D7EA33E92}"/>
